--- a/idea/qian/2015-5-22-需求规格说明书_韩俊乾.xlsx
+++ b/idea/qian/2015-5-22-需求规格说明书_韩俊乾.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>序号</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>add the one</t>
   </si>
   <si>
     <t>4</t>
@@ -103,8 +106,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -484,11 +487,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -515,7 +518,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -567,79 +570,82 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
